--- a/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_2_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1422547.985149657</v>
+        <v>1352119.983488717</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12244790.98632947</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809165</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>316.4830965401031</v>
+        <v>142.0655764955746</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,7 +674,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>167.6364324356804</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4.243367814053794</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -896,16 +896,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>89.47820129641164</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.77901812021</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>260.4446813871647</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>154.6054260348455</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.5802216080011</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.9073134702961</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095527</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1531,10 +1531,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>168.9164623971704</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>184.1331270995153</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1607,7 +1607,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868319</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1768,10 +1768,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>32.82613017026688</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,16 +1822,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>120.8133894743402</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2014,7 +2014,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>34.79033948628592</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3731379166884</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2132,7 +2132,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2141,7 +2141,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2239,22 +2239,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>153.5126256361145</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2302,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>121.5805385097624</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>51.69511841098206</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5.470649906744786</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2713,7 +2713,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2725,13 +2725,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>81.47201079466383</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>219.3616663816166</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,22 +2953,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188593</v>
       </c>
       <c r="W31" t="n">
-        <v>19.85902767342632</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.1668213893229</v>
+        <v>178.1668213893226</v>
       </c>
       <c r="C34" t="n">
-        <v>160.155349854251</v>
+        <v>160.1553498542508</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.0456688475631</v>
+        <v>160.0456688475628</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>108.1577655104148</v>
+        <v>108.1577655104189</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3362093704344</v>
+        <v>158.3362093704341</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8084666607369</v>
+        <v>230.8084666607367</v>
       </c>
       <c r="U34" t="n">
-        <v>267.2851163790766</v>
+        <v>267.2851163790764</v>
       </c>
       <c r="V34" t="n">
-        <v>268.7968650824292</v>
+        <v>268.796865082429</v>
       </c>
       <c r="W34" t="n">
-        <v>262.00639215359</v>
+        <v>262.0063921535897</v>
       </c>
       <c r="X34" t="n">
-        <v>230.0407699530308</v>
+        <v>230.0407699530306</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9818529915333</v>
+        <v>213.981852991533</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138062</v>
+        <v>364.6210704138053</v>
       </c>
       <c r="H35" t="n">
         <v>259.2150933680659</v>
@@ -3317,7 +3317,7 @@
         <v>67.64901981295137</v>
       </c>
       <c r="T35" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731736</v>
       </c>
       <c r="U35" t="n">
         <v>220.0967589369122</v>
@@ -3326,7 +3326,7 @@
         <v>318.2399193523734</v>
       </c>
       <c r="W35" t="n">
-        <v>356.752834830017</v>
+        <v>356.7528348300169</v>
       </c>
       <c r="X35" t="n">
         <v>371.9281974712906</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
@@ -3430,19 +3430,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F37" t="n">
-        <v>134.4685551105455</v>
+        <v>134.4685551105456</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705878</v>
+        <v>10.89362580705896</v>
       </c>
       <c r="S37" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334169</v>
       </c>
       <c r="T37" t="n">
         <v>205.2313529237194</v>
@@ -3481,7 +3481,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W37" t="n">
         <v>236.4292784165725</v>
@@ -3490,7 +3490,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4047392545157</v>
+        <v>188.4047392545158</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4034,7 +4034,7 @@
         <v>220.0967589369122</v>
       </c>
       <c r="V44" t="n">
-        <v>318.2399193523734</v>
+        <v>318.2399193523726</v>
       </c>
       <c r="W44" t="n">
         <v>356.7528348300169</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448648</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.453176747758</v>
+        <v>247.3246769646934</v>
       </c>
       <c r="C2" t="n">
-        <v>1209.773281252704</v>
+        <v>103.8240946459311</v>
       </c>
       <c r="D2" t="n">
-        <v>786.4806604377047</v>
+        <v>84.57187787133546</v>
       </c>
       <c r="E2" t="n">
-        <v>360.5037205855622</v>
+        <v>62.63534205959706</v>
       </c>
       <c r="F2" t="n">
-        <v>339.4199428153665</v>
+        <v>41.55156428940137</v>
       </c>
       <c r="G2" t="n">
-        <v>339.1212844452192</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="H2" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="I2" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="J2" t="n">
         <v>403.8563647361495</v>
       </c>
       <c r="K2" t="n">
-        <v>403.8563647361495</v>
+        <v>914.3610754869185</v>
       </c>
       <c r="L2" t="n">
-        <v>403.8563647361495</v>
+        <v>914.3610754869185</v>
       </c>
       <c r="M2" t="n">
-        <v>403.8563647361495</v>
+        <v>914.3610754869185</v>
       </c>
       <c r="N2" t="n">
-        <v>585.5503949569817</v>
+        <v>1096.055105707751</v>
       </c>
       <c r="O2" t="n">
-        <v>1096.05510570775</v>
+        <v>1096.055105707751</v>
       </c>
       <c r="P2" t="n">
-        <v>1606.559816458519</v>
+        <v>1606.55981645852</v>
       </c>
       <c r="Q2" t="n">
-        <v>2062.645295962702</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R2" t="n">
-        <v>2062.645295962702</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="S2" t="n">
-        <v>1958.278001835843</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="T2" t="n">
-        <v>1958.278001835843</v>
+        <v>1841.719725007336</v>
       </c>
       <c r="U2" t="n">
-        <v>1958.278001835843</v>
+        <v>1841.719725007336</v>
       </c>
       <c r="V2" t="n">
-        <v>1958.278001835843</v>
+        <v>1484.230310133586</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.278001835843</v>
+        <v>1484.230310133586</v>
       </c>
       <c r="X2" t="n">
-        <v>1950.598407043994</v>
+        <v>1072.510311301333</v>
       </c>
       <c r="Y2" t="n">
-        <v>1949.301541039288</v>
+        <v>667.1730412562234</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>94.62899915694446</v>
+        <v>94.62899915694447</v>
       </c>
       <c r="H3" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="I3" t="n">
-        <v>48.69954888116589</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="J3" t="n">
-        <v>48.69954888116589</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="K3" t="n">
-        <v>48.69954888116589</v>
+        <v>236.4070941627537</v>
       </c>
       <c r="L3" t="n">
-        <v>48.69954888116589</v>
+        <v>746.9118049135227</v>
       </c>
       <c r="M3" t="n">
-        <v>48.69954888116589</v>
+        <v>1257.416515664292</v>
       </c>
       <c r="N3" t="n">
-        <v>282.7663280507436</v>
+        <v>1257.416515664292</v>
       </c>
       <c r="O3" t="n">
-        <v>793.2710388015124</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="P3" t="n">
-        <v>1303.775749552281</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="Q3" t="n">
         <v>1767.921226415061</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1124.434028443491</v>
+        <v>958.5852110778326</v>
       </c>
       <c r="C4" t="n">
-        <v>952.4614653224069</v>
+        <v>786.6126479567486</v>
       </c>
       <c r="D4" t="n">
-        <v>789.1446924491776</v>
+        <v>786.6126479567486</v>
       </c>
       <c r="E4" t="n">
-        <v>622.9364866020311</v>
+        <v>620.4044421096021</v>
       </c>
       <c r="F4" t="n">
         <v>451.0747123765915</v>
@@ -4483,55 +4483,55 @@
         <v>141.0214741789781</v>
       </c>
       <c r="I4" t="n">
-        <v>41.25290591925405</v>
+        <v>41.25290591925406</v>
       </c>
       <c r="J4" t="n">
-        <v>98.74423414341206</v>
+        <v>66.72372701449456</v>
       </c>
       <c r="K4" t="n">
-        <v>325.2718353492493</v>
+        <v>293.2513282203317</v>
       </c>
       <c r="L4" t="n">
-        <v>679.9611566436701</v>
+        <v>647.9406495147525</v>
       </c>
       <c r="M4" t="n">
-        <v>1071.146951613921</v>
+        <v>1039.126444485003</v>
       </c>
       <c r="N4" t="n">
-        <v>1448.638462489957</v>
+        <v>1416.617955361039</v>
       </c>
       <c r="O4" t="n">
-        <v>1645.045953800039</v>
+        <v>1772.046084040802</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.64516572194</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="Q4" t="n">
-        <v>2062.645295962702</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="R4" t="n">
-        <v>2062.645295962702</v>
+        <v>2062.645295962703</v>
       </c>
       <c r="S4" t="n">
-        <v>2062.645295962702</v>
+        <v>1892.510248481838</v>
       </c>
       <c r="T4" t="n">
-        <v>2062.645295962702</v>
+        <v>1892.510248481838</v>
       </c>
       <c r="U4" t="n">
-        <v>2062.645295962702</v>
+        <v>1892.510248481838</v>
       </c>
       <c r="V4" t="n">
-        <v>2058.359065847496</v>
+        <v>1892.510248481838</v>
       </c>
       <c r="W4" t="n">
-        <v>1783.506662020009</v>
+        <v>1617.657844654351</v>
       </c>
       <c r="X4" t="n">
-        <v>1540.942765465815</v>
+        <v>1375.093948100156</v>
       </c>
       <c r="Y4" t="n">
-        <v>1314.599997155557</v>
+        <v>1148.751179789898</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1746.091355883837</v>
+        <v>234.1248547200804</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.190625897137</v>
+        <v>211.2645287737846</v>
       </c>
       <c r="D5" t="n">
-        <v>895.898005082137</v>
+        <v>192.0123119991889</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>170.0757761874505</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4571,22 +4571,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1145.829295018124</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2152.580309506745</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4601,16 +4601,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>2165.939720175366</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163286</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4808,19 +4808,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M8" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1696.494830002562</v>
       </c>
-      <c r="O8" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4832,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="W8" t="n">
-        <v>1570.164993359136</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="X8" t="n">
-        <v>1562.485398567287</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>287.7093087981016</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>287.7093087981016</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>287.7093087981016</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M9" t="n">
-        <v>287.7093087981016</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4984,28 +4984,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="11">
@@ -5039,37 +5039,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5081,7 +5081,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5127,10 +5127,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
         <v>1910.990343986338</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.1370507523521</v>
+        <v>919.4582979645734</v>
       </c>
       <c r="C13" t="n">
-        <v>274.1644876312681</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D13" t="n">
-        <v>274.1644876312681</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E13" t="n">
-        <v>274.1644876312681</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5200,49 +5200,49 @@
         <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358267</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302474</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338095</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.773555548329</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V13" t="n">
-        <v>1380.062088156358</v>
+        <v>1853.383335368579</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.20968432887</v>
+        <v>1578.530931541092</v>
       </c>
       <c r="X13" t="n">
-        <v>862.6457877746757</v>
+        <v>1335.967034986897</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.3030194644177</v>
+        <v>1109.624266676639</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
         <v>2113.800768076616</v>
@@ -5285,19 +5285,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291426</v>
@@ -5312,16 +5312,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5367,13 +5367,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>775.6620294727279</v>
+        <v>722.8595947466156</v>
       </c>
       <c r="C16" t="n">
-        <v>603.689466351644</v>
+        <v>550.8870316255316</v>
       </c>
       <c r="D16" t="n">
-        <v>440.3726934784147</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="E16" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5458,28 +5458,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1467.023170322539</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.170766495052</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.170766495052</v>
+        <v>913.0255634586813</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.8279981847936</v>
+        <v>913.0255634586813</v>
       </c>
     </row>
     <row r="17">
@@ -5522,16 +5522,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409524</v>
@@ -5592,25 +5592,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1801.283937336665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.6620294727278</v>
+        <v>941.9189991784956</v>
       </c>
       <c r="C19" t="n">
-        <v>603.6894663516438</v>
+        <v>769.9464360574116</v>
       </c>
       <c r="D19" t="n">
-        <v>440.3726934784145</v>
+        <v>606.6296631841822</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5701,22 +5701,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2247.573983762102</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1967.389535262407</v>
       </c>
       <c r="V19" t="n">
-        <v>1519.421098164668</v>
+        <v>1685.678067870435</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.568694337181</v>
+        <v>1410.825664042948</v>
       </c>
       <c r="X19" t="n">
-        <v>1002.004797782986</v>
+        <v>1168.261767488754</v>
       </c>
       <c r="Y19" t="n">
-        <v>775.6620294727278</v>
+        <v>941.9189991784956</v>
       </c>
     </row>
     <row r="20">
@@ -5753,13 +5753,13 @@
         <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596601</v>
@@ -5838,10 +5838,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8809303238178</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>741.8809303238178</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5932,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1957.517435119795</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1675.805967727823</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1400.953563900336</v>
+        <v>985.4544125320111</v>
       </c>
       <c r="X22" t="n">
-        <v>1158.389667346141</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>932.0468990358834</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6072,7 +6072,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>855.0038060102931</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>686.6827951484233</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>514.7102320273393</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>351.3934591541101</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>351.3934591541101</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058286</v>
+        <v>351.3934591541101</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058286</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058286</v>
@@ -6172,25 +6172,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>985.4544125320112</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778162</v>
+        <v>913.0255634586813</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.547747667558</v>
+        <v>686.6827951484233</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q26" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,16 +6312,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1123.98252783687</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="C28" t="n">
-        <v>952.0099647157862</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D28" t="n">
-        <v>788.6931918425569</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>622.4849859954104</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>450.6232117699708</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
-        <v>284.3662420642029</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058286</v>
@@ -6385,7 +6385,7 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6406,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1540.491264859194</v>
+        <v>1537.61450375565</v>
       </c>
       <c r="W28" t="n">
-        <v>1540.491264859194</v>
+        <v>1262.762099928163</v>
       </c>
       <c r="X28" t="n">
-        <v>1540.491264859194</v>
+        <v>1020.198203373968</v>
       </c>
       <c r="Y28" t="n">
-        <v>1314.148496548936</v>
+        <v>793.8554350637096</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6537,19 +6537,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058286</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.760201014738</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1458.196304460543</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,22 +6780,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1874.486968420372</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>534.9883540242416</v>
+        <v>534.9883540242453</v>
       </c>
       <c r="C34" t="n">
-        <v>373.215273363382</v>
+        <v>373.2152733633858</v>
       </c>
       <c r="D34" t="n">
-        <v>373.215273363382</v>
+        <v>373.2152733633858</v>
       </c>
       <c r="E34" t="n">
-        <v>373.215273363382</v>
+        <v>373.2152733633858</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5529815981668</v>
+        <v>211.5529815981709</v>
       </c>
       <c r="G34" t="n">
-        <v>211.5529815981668</v>
+        <v>211.5529815981709</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058286</v>
@@ -6856,52 +6856,52 @@
         <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>169.7905543892525</v>
+        <v>169.7905543892527</v>
       </c>
       <c r="K34" t="n">
-        <v>406.3146683543555</v>
+        <v>406.314668354356</v>
       </c>
       <c r="L34" t="n">
-        <v>771.0005024080422</v>
+        <v>771.0005024080428</v>
       </c>
       <c r="M34" t="n">
-        <v>1172.182810137559</v>
+        <v>1172.18281013756</v>
       </c>
       <c r="N34" t="n">
-        <v>1559.670833772861</v>
+        <v>1559.670833772862</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.095475211889</v>
+        <v>1925.095475211891</v>
       </c>
       <c r="P34" t="n">
-        <v>2225.691199893056</v>
+        <v>2225.691199893058</v>
       </c>
       <c r="Q34" t="n">
-        <v>2362.687842893085</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="R34" t="n">
-        <v>2362.687842893085</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="S34" t="n">
-        <v>2202.752277872444</v>
+        <v>2202.752277872446</v>
       </c>
       <c r="T34" t="n">
-        <v>1969.612412558568</v>
+        <v>1969.61241255857</v>
       </c>
       <c r="U34" t="n">
-        <v>1699.627446519097</v>
+        <v>1699.627446519099</v>
       </c>
       <c r="V34" t="n">
-        <v>1428.11546158735</v>
+        <v>1428.115461587352</v>
       </c>
       <c r="W34" t="n">
-        <v>1163.462540220087</v>
+        <v>1163.46254022009</v>
       </c>
       <c r="X34" t="n">
-        <v>931.0981261261165</v>
+        <v>931.0981261261198</v>
       </c>
       <c r="Y34" t="n">
-        <v>714.9548402760829</v>
+        <v>714.9548402760863</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K35" t="n">
         <v>806.8031400834319</v>
       </c>
       <c r="L35" t="n">
-        <v>806.8031400834319</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="M35" t="n">
-        <v>1811.08924150249</v>
+        <v>2740.714289121767</v>
       </c>
       <c r="N35" t="n">
-        <v>2787.340299989191</v>
+        <v>3716.965347608468</v>
       </c>
       <c r="O35" t="n">
-        <v>3632.484950140003</v>
+        <v>4562.10999775928</v>
       </c>
       <c r="P35" t="n">
-        <v>4108.65612589246</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K36" t="n">
-        <v>681.7797586762724</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L36" t="n">
-        <v>1518.578566759179</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M36" t="n">
-        <v>1518.578566759179</v>
+        <v>1147.281370083978</v>
       </c>
       <c r="N36" t="n">
-        <v>1518.578566759179</v>
+        <v>1147.281370083978</v>
       </c>
       <c r="O36" t="n">
-        <v>1899.982462688443</v>
+        <v>1183.784745649945</v>
       </c>
       <c r="P36" t="n">
         <v>1899.982462688443</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C37" t="n">
-        <v>786.293686222361</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305858</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648936</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209082</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965945</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910042</v>
@@ -7099,10 +7099,10 @@
         <v>445.9494722557546</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
         <v>1675.269665473202</v>
@@ -7117,10 +7117,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T37" t="n">
         <v>2201.842546468938</v>
@@ -7129,7 +7129,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
         <v>1473.199079394147</v>
@@ -7160,52 +7160,52 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.432371281541</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1282597524438</v>
+        <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793279</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K38" t="n">
-        <v>91.29483210793288</v>
+        <v>1105.441569981925</v>
       </c>
       <c r="L38" t="n">
-        <v>1020.919879727209</v>
+        <v>2035.066617601202</v>
       </c>
       <c r="M38" t="n">
-        <v>2025.205981146268</v>
+        <v>2035.066617601202</v>
       </c>
       <c r="N38" t="n">
-        <v>3001.457039632969</v>
+        <v>3011.317676087903</v>
       </c>
       <c r="O38" t="n">
-        <v>3846.601689783781</v>
+        <v>3856.462326238715</v>
       </c>
       <c r="P38" t="n">
-        <v>4447.185270514741</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.185270514741</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
         <v>3767.744219562895</v>
@@ -7245,31 +7245,31 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793288</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793288</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="M39" t="n">
-        <v>1147.281370083978</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="N39" t="n">
-        <v>1899.982462688443</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="O39" t="n">
-        <v>1899.982462688443</v>
+        <v>719.6392687871653</v>
       </c>
       <c r="P39" t="n">
-        <v>1899.982462688443</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q39" t="n">
         <v>1899.982462688443</v>
@@ -7309,25 +7309,25 @@
         <v>922.2312984619905</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J40" t="n">
         <v>184.1040156910041</v>
@@ -7336,13 +7336,13 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O40" t="n">
         <v>2066.015649511878</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7369,7 +7369,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X40" t="n">
         <v>1266.670133721406</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>806.8031400834319</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N41" t="n">
-        <v>2712.679246189409</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O41" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P41" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K42" t="n">
-        <v>91.29483210793288</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L42" t="n">
-        <v>91.29483210793288</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M42" t="n">
-        <v>1147.281370083978</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N42" t="n">
-        <v>1899.982462688443</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O42" t="n">
-        <v>1899.982462688443</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P42" t="n">
-        <v>1899.982462688443</v>
+        <v>1677.121607956273</v>
       </c>
       <c r="Q42" t="n">
         <v>1899.982462688443</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619907</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C43" t="n">
-        <v>786.293686222361</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305861</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648934</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.011785920908</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H43" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J43" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
@@ -7600,16 +7600,16 @@
         <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850697</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
         <v>1887.72126111492</v>
@@ -7634,55 +7634,55 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
-        <v>453.8982909248284</v>
+        <v>389.933262006426</v>
       </c>
       <c r="K44" t="n">
-        <v>1169.406598900327</v>
+        <v>1105.441569981925</v>
       </c>
       <c r="L44" t="n">
-        <v>2099.031646519604</v>
+        <v>2035.066617601202</v>
       </c>
       <c r="M44" t="n">
-        <v>3103.317747938662</v>
+        <v>2035.066617601202</v>
       </c>
       <c r="N44" t="n">
-        <v>3719.596955245831</v>
+        <v>3011.317676087903</v>
       </c>
       <c r="O44" t="n">
-        <v>4564.741605396644</v>
+        <v>3856.462326238715</v>
       </c>
       <c r="P44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W44" t="n">
         <v>3407.387820744696</v>
@@ -7691,7 +7691,7 @@
         <v>3031.702772793898</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="M45" t="n">
-        <v>810.6675162155727</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="N45" t="n">
-        <v>1899.982462688443</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="O45" t="n">
-        <v>1899.982462688443</v>
+        <v>719.6392687871653</v>
       </c>
       <c r="P45" t="n">
-        <v>1899.982462688443</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q45" t="n">
         <v>1899.982462688443</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619898</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223601</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305849</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648926</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209072</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965935</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
-        <v>155.028449486202</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J46" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7840,16 +7840,16 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X46" t="n">
         <v>1266.670133721406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1076.362316292601</v>
+        <v>1076.362316292602</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>551.4259247854851</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,13 +7988,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>220.808946289832</v>
+        <v>220.8089462898326</v>
       </c>
       <c r="O2" t="n">
-        <v>553.0522833466996</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>553.2366858009068</v>
+        <v>553.236685800907</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,31 +8052,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>219.524676503535</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>538.1764107049054</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>538.7581045030038</v>
       </c>
       <c r="N3" t="n">
-        <v>257.7741182838222</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>538.8332137128978</v>
+        <v>538.833213712898</v>
       </c>
       <c r="P3" t="n">
-        <v>537.4321651955042</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>46.36485810030641</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8149,13 +8149,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>220.890592862144</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,25 +8219,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>108.094208435838</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8301,19 +8301,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>380.3086605601453</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>185.9918631203543</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8456,7 +8456,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8465,13 +8465,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,28 +8529,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>266.2788756958121</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8696,10 +8696,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>883.920771480625</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8708,10 +8708,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8933,22 +8933,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9170,19 +9170,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.60750039798516</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9240,28 +9240,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>133.9113326837148</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,16 +9401,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9486,13 +9486,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9638,16 +9638,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9659,7 +9659,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>782.8192206581333</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9887,16 +9887,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R26" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9960,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,22 +10118,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10200,7 +10200,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>499.6833922165333</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,22 +10355,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,10 +10443,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>59.6191348202578</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10589,7 +10589,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,10 +10601,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>518.556347418774</v>
+        <v>40.23355134292051</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10665,22 +10665,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>408.4283502568324</v>
+        <v>60.04398625350176</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>693.8891250949071</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10838,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>644.2254433566559</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11069,10 +11069,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O41" t="n">
-        <v>732.0350003106942</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11081,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,31 +11133,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>247.8590127659173</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>331.0749391810342</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11303,16 +11303,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>659.7838726396674</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11382,19 +11382,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23464,16 +23464,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>71.98949189918858</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>94.76122561853606</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.8574749742301</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0809632437112</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23941,13 +23941,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>206.1156148100731</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>41.52121480136296</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>123.8699783785842</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>118.5577190788905</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>118.5577190788911</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>159.1237501019654</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>60.88629501226332</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>59.53268633643476</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24886,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="W31" t="n">
-        <v>252.2448521157858</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5861175088749</v>
+        <v>151.5861175088747</v>
       </c>
       <c r="E34" t="n">
-        <v>154.4486361530529</v>
+        <v>154.4486361530526</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>154.4969123730881</v>
+        <v>154.4969123730878</v>
       </c>
       <c r="H34" t="n">
-        <v>24.10305266089019</v>
+        <v>24.10305266088593</v>
       </c>
       <c r="I34" t="n">
-        <v>88.67339494150465</v>
+        <v>88.67339494150444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.47073954407646</v>
+        <v>36.47073954407624</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>646865.6702471602</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646865.6702471602</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>646865.67024716</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646865.6702471601</v>
+        <v>646865.6702471602</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646865.6702471602</v>
+        <v>646865.6702471601</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653220.9998842563</v>
+        <v>653220.9998842565</v>
       </c>
     </row>
     <row r="13">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.734207256</v>
       </c>
       <c r="D2" t="n">
         <v>378587.734207256</v>
       </c>
       <c r="E2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393406</v>
       </c>
       <c r="F2" t="n">
+        <v>365319.7620393407</v>
+      </c>
+      <c r="G2" t="n">
         <v>365319.7620393408</v>
-      </c>
-      <c r="G2" t="n">
-        <v>365319.7620393407</v>
       </c>
       <c r="H2" t="n">
         <v>365319.7620393409</v>
@@ -26335,25 +26335,25 @@
         <v>365319.7620393408</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="K2" t="n">
         <v>365319.7620393409</v>
       </c>
       <c r="L2" t="n">
-        <v>369075.1840976252</v>
+        <v>369075.1840976251</v>
       </c>
       <c r="M2" t="n">
         <v>378587.7342072562</v>
       </c>
       <c r="N2" t="n">
+        <v>378587.7342072558</v>
+      </c>
+      <c r="O2" t="n">
         <v>378587.7342072563</v>
       </c>
-      <c r="O2" t="n">
-        <v>378587.7342072558</v>
-      </c>
       <c r="P2" t="n">
-        <v>378587.7342072558</v>
+        <v>378587.7342072561</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>172809.9698797272</v>
       </c>
       <c r="C3" t="n">
-        <v>13105.84347019898</v>
+        <v>13105.84347019891</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>134919.6914542163</v>
+        <v>134919.6914542164</v>
       </c>
       <c r="K3" t="n">
-        <v>10440.51617310204</v>
+        <v>10440.51617310199</v>
       </c>
       <c r="L3" t="n">
-        <v>8077.9901084977</v>
+        <v>8077.990108497877</v>
       </c>
       <c r="M3" t="n">
-        <v>166235.4618077717</v>
+        <v>166235.4618077715</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163198.836755154</v>
+        <v>168794.7573932436</v>
       </c>
       <c r="C4" t="n">
-        <v>154645.0452675537</v>
+        <v>160524.6429851371</v>
       </c>
       <c r="D4" t="n">
-        <v>154645.0452675538</v>
+        <v>160524.6429851371</v>
       </c>
       <c r="E4" t="n">
-        <v>25932.34702549271</v>
+        <v>35694.17876455268</v>
       </c>
       <c r="F4" t="n">
-        <v>25932.34702549271</v>
+        <v>35694.17876455268</v>
       </c>
       <c r="G4" t="n">
-        <v>25932.34702549271</v>
+        <v>35694.17876455269</v>
       </c>
       <c r="H4" t="n">
-        <v>25932.34702549269</v>
+        <v>35694.17876455268</v>
       </c>
       <c r="I4" t="n">
-        <v>25932.34702549271</v>
+        <v>35694.17876455269</v>
       </c>
       <c r="J4" t="n">
-        <v>25932.34702549271</v>
+        <v>35694.17876455269</v>
       </c>
       <c r="K4" t="n">
-        <v>25932.34702549271</v>
+        <v>35694.17876455269</v>
       </c>
       <c r="L4" t="n">
-        <v>29254.92367123284</v>
+        <v>39016.7554102929</v>
       </c>
       <c r="M4" t="n">
-        <v>59963.54432725643</v>
+        <v>68986.07065087109</v>
       </c>
       <c r="N4" t="n">
-        <v>59963.54432725643</v>
+        <v>68986.07065087109</v>
       </c>
       <c r="O4" t="n">
-        <v>59963.54432725642</v>
+        <v>68986.07065087112</v>
       </c>
       <c r="P4" t="n">
-        <v>59963.54432725643</v>
+        <v>68986.0706508711</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64979.80849863307</v>
+        <v>64979.80849863308</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26497,19 +26497,19 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>78598.9478764688</v>
+        <v>78598.94787646882</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22400.88092625814</v>
+        <v>-27996.801564348</v>
       </c>
       <c r="C6" t="n">
-        <v>143390.5944320753</v>
+        <v>137510.9967144919</v>
       </c>
       <c r="D6" t="n">
-        <v>156496.4379022741</v>
+        <v>150616.8401846908</v>
       </c>
       <c r="E6" t="n">
-        <v>45897.99626877801</v>
+        <v>36085.13386753346</v>
       </c>
       <c r="F6" t="n">
-        <v>261637.3528254184</v>
+        <v>251824.4904241741</v>
       </c>
       <c r="G6" t="n">
-        <v>261637.3528254183</v>
+        <v>251824.4904241741</v>
       </c>
       <c r="H6" t="n">
-        <v>261637.3528254186</v>
+        <v>251824.4904241742</v>
       </c>
       <c r="I6" t="n">
-        <v>261637.3528254184</v>
+        <v>251824.4904241741</v>
       </c>
       <c r="J6" t="n">
-        <v>126717.6613712021</v>
+        <v>116904.7989699576</v>
       </c>
       <c r="K6" t="n">
-        <v>251196.8366523164</v>
+        <v>241383.9742510722</v>
       </c>
       <c r="L6" t="n">
-        <v>253143.3224414259</v>
+        <v>243344.9039711746</v>
       </c>
       <c r="M6" t="n">
-        <v>80005.5276074026</v>
+        <v>70983.00128378818</v>
       </c>
       <c r="N6" t="n">
-        <v>246240.9894151744</v>
+        <v>237218.4630915593</v>
       </c>
       <c r="O6" t="n">
-        <v>246240.9894151739</v>
+        <v>237218.4630915598</v>
       </c>
       <c r="P6" t="n">
-        <v>246240.989415174</v>
+        <v>237218.4630915596</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.6613239906756</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="M2" t="n">
-        <v>25.57711373701751</v>
+        <v>25.57711373701727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.6613239906756</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="C4" t="n">
-        <v>40.56648912491858</v>
+        <v>40.56648912491835</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.6613239906756</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491858</v>
+        <v>40.56648912491835</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>584.9575882335665</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.6613239906756</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491858</v>
+        <v>40.56648912491835</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>106.1486261467298</v>
+        <v>280.5661461912582</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.506724047504747</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27594,7 +27594,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>274.6509849039976</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>331.3947386960821</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>350.5048792244486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27831,7 +27831,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>18.4496713308867</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,22 +27904,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>64.11088921096768</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7036757366575</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>27.77629167420091</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060574</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="C34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="D34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="E34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="F34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="G34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="H34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="I34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="J34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="K34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="L34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="M34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="N34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="O34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="P34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="R34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="S34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="T34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="U34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="V34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="W34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="X34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.09748763562212</v>
+        <v>10.09748763562235</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137264055</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263953</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137264038</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>183.529323455386</v>
+        <v>183.5293234553866</v>
       </c>
       <c r="O2" t="n">
-        <v>515.6613239906756</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>515.6613239906756</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,31 +34772,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>197.1254426702017</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="N3" t="n">
-        <v>236.4310900702805</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>515.6613239906756</v>
+        <v>515.6613239906758</v>
       </c>
       <c r="P3" t="n">
-        <v>515.6613239906756</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>25.72810211640454</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34869,13 +34869,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>198.3914053637196</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>73.06155854104156</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>357.2118800478173</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>162.8199733981321</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35185,13 +35185,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35416,10 +35416,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>846.4895085811933</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35428,10 +35428,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937779</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35653,22 +35653,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.48282579338712</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>110.8145521713869</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36206,13 +36206,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36379,7 +36379,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>760.3041339439037</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36607,16 +36607,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R26" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,22 +36838,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,22 +37075,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.16953634689285</v>
+        <v>68.16953634689307</v>
       </c>
       <c r="K34" t="n">
-        <v>238.913246429397</v>
+        <v>238.9132464293973</v>
       </c>
       <c r="L34" t="n">
-        <v>368.3695293471583</v>
+        <v>368.3695293471585</v>
       </c>
       <c r="M34" t="n">
-        <v>405.2346542722391</v>
+        <v>405.2346542722394</v>
       </c>
       <c r="N34" t="n">
-        <v>391.4020440760623</v>
+        <v>391.4020440760626</v>
       </c>
       <c r="O34" t="n">
-        <v>369.1157994333626</v>
+        <v>369.1157994333628</v>
       </c>
       <c r="P34" t="n">
-        <v>303.6320451324918</v>
+        <v>303.6320451324921</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.3804474747756</v>
+        <v>138.3804474747758</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,10 +37321,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>480.9809856085427</v>
+        <v>2.658189532689214</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>385.2564605346102</v>
+        <v>36.87209653127953</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391034</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>658.1245243000977</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37558,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>606.6500815464246</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37789,10 +37789,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O41" t="n">
-        <v>694.64404095467</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37801,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>225.1119744769388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>301.6549796954477</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38023,16 +38023,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>622.5042498052213</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
